--- a/features/ModelingWorkbench_FeatureConfiguration.xlsx
+++ b/features/ModelingWorkbench_FeatureConfiguration.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">│   │   ├── Folding</t>
   </si>
   <si>
+    <t xml:space="preserve">default VS Code folding</t>
+  </si>
+  <si>
     <t xml:space="preserve">│   │   ├── Syntactic completion</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t xml:space="preserve">│   │   ├── Reference resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref. Are checked but no “Find definition/references”</t>
   </si>
   <si>
     <t xml:space="preserve">│   │   ├── Semantic completion</t>
@@ -424,52 +430,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,1044 +702,1049 @@
   </sheetPr>
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="48.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="48.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="E10" s="5" t="s">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1"/>
+      <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="1"/>
+      <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>9</v>
+      <c r="A35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="1"/>
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1"/>
+      <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>50</v>
+      <c r="C38" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1"/>
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1"/>
+      <c r="A40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="1"/>
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1"/>
+      <c r="A43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="1"/>
+      <c r="A44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1"/>
+      <c r="A45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="A46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1"/>
+      <c r="A47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1"/>
+      <c r="A48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>64</v>
+      <c r="C51" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>66</v>
+      <c r="C52" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="1"/>
+      <c r="A53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="1"/>
+      <c r="A54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="1"/>
+      <c r="A55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="A56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="1"/>
+      <c r="A57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="1"/>
+      <c r="A58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="1"/>
+      <c r="A59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="A60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="A61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="A62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>78</v>
+      <c r="A63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="1"/>
+      <c r="A64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>83</v>
+      <c r="A67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="1"/>
+      <c r="A68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="A69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="A70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="11"/>
+      <c r="A72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>90</v>
+      <c r="C73" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
+      <c r="A81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2"/>
+      <c r="A83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
+      <c r="A88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2"/>
+      <c r="A89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2"/>
+      <c r="A92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
+      <c r="A93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2"/>
+      <c r="A95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2"/>
+      <c r="A96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2"/>
+      <c r="A97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2"/>
+      <c r="A98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2"/>
+      <c r="A101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2"/>
+      <c r="A102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2"/>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2"/>
+      <c r="A104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2"/>
+      <c r="A107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2"/>
+      <c r="A109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2"/>
+      <c r="A110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2"/>
+      <c r="A111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2"/>
+      <c r="A115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2"/>
+      <c r="A118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2"/>
+      <c r="A121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2"/>
+      <c r="A123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2"/>
+      <c r="A124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2"/>
+      <c r="A125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2"/>
+      <c r="A126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2"/>
+      <c r="A127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2"/>
+      <c r="A131" s="3"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2"/>
+      <c r="A132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2"/>
+      <c r="A134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2"/>
+      <c r="A135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2"/>
+      <c r="A136" s="3"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2"/>
+      <c r="A139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2"/>
+      <c r="A140" s="3"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2"/>
+      <c r="A141" s="3"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2"/>
+      <c r="A144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2"/>
+      <c r="A145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2"/>
+      <c r="A146" s="3"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2"/>
+      <c r="A148" s="3"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2"/>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2"/>
+      <c r="A150" s="3"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2"/>
+      <c r="A151" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
